--- a/Master/MasterData/SkillTree.xlsx
+++ b/Master/MasterData/SkillTree.xlsx
@@ -262,7 +262,7 @@
   <dimension ref="A3:F28"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D19" activeCellId="0" sqref="1:1048576"/>
+      <selection pane="topLeft" activeCell="D19" activeCellId="0" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -383,7 +383,7 @@
         <v>2</v>
       </c>
       <c r="D10" s="4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E10" s="4" t="n">
         <v>2</v>
@@ -400,7 +400,7 @@
         <v>2</v>
       </c>
       <c r="D11" s="4" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E11" s="4" t="n">
         <v>3</v>
@@ -417,7 +417,7 @@
         <v>2</v>
       </c>
       <c r="D12" s="4" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E12" s="4" t="n">
         <v>5</v>
@@ -434,7 +434,7 @@
         <v>3</v>
       </c>
       <c r="D13" s="4" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E13" s="4" t="n">
         <v>2</v>
@@ -451,7 +451,7 @@
         <v>3</v>
       </c>
       <c r="D14" s="4" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E14" s="4" t="n">
         <v>3</v>
@@ -468,7 +468,7 @@
         <v>3</v>
       </c>
       <c r="D15" s="4" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E15" s="4" t="n">
         <v>5</v>
@@ -485,7 +485,7 @@
         <v>4</v>
       </c>
       <c r="D16" s="4" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E16" s="4" t="n">
         <v>2</v>
@@ -502,7 +502,7 @@
         <v>4</v>
       </c>
       <c r="D17" s="4" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E17" s="4" t="n">
         <v>3</v>
@@ -519,7 +519,7 @@
         <v>4</v>
       </c>
       <c r="D18" s="4" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E18" s="4" t="n">
         <v>5</v>

--- a/Master/MasterData/SkillTree.xlsx
+++ b/Master/MasterData/SkillTree.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="14">
   <si>
     <t xml:space="preserve">$ENUM</t>
   </si>
@@ -50,6 +50,9 @@
   </si>
   <si>
     <t xml:space="preserve">Cost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ParentNode</t>
   </si>
   <si>
     <t xml:space="preserve">u32</t>
@@ -259,10 +262,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A3:F28"/>
+  <dimension ref="A3:G28"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D19" activeCellId="0" sqref="D19"/>
+      <selection pane="topLeft" activeCell="G19" activeCellId="0" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -303,27 +306,33 @@
       <c r="F5" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="G5" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B7" s="4" t="n">
         <v>1</v>
@@ -340,6 +349,9 @@
       <c r="F7" s="4" t="n">
         <v>500</v>
       </c>
+      <c r="G7" s="4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="4" t="n">
@@ -357,6 +369,9 @@
       <c r="F8" s="4" t="n">
         <v>500</v>
       </c>
+      <c r="G8" s="4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="4" t="n">
@@ -373,6 +388,9 @@
       </c>
       <c r="F9" s="4" t="n">
         <v>500</v>
+      </c>
+      <c r="G9" s="4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -391,6 +409,9 @@
       <c r="F10" s="4" t="n">
         <v>500</v>
       </c>
+      <c r="G10" s="4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="4" t="n">
@@ -407,6 +428,9 @@
       </c>
       <c r="F11" s="4" t="n">
         <v>500</v>
+      </c>
+      <c r="G11" s="4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -425,6 +449,9 @@
       <c r="F12" s="4" t="n">
         <v>500</v>
       </c>
+      <c r="G12" s="4" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="4" t="n">
@@ -442,6 +469,9 @@
       <c r="F13" s="4" t="n">
         <v>500</v>
       </c>
+      <c r="G13" s="4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="4" t="n">
@@ -459,6 +489,9 @@
       <c r="F14" s="4" t="n">
         <v>500</v>
       </c>
+      <c r="G14" s="4" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="4" t="n">
@@ -476,6 +509,9 @@
       <c r="F15" s="4" t="n">
         <v>500</v>
       </c>
+      <c r="G15" s="4" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="4" t="n">
@@ -493,6 +529,9 @@
       <c r="F16" s="4" t="n">
         <v>500</v>
       </c>
+      <c r="G16" s="4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="4" t="n">
@@ -509,6 +548,9 @@
       </c>
       <c r="F17" s="4" t="n">
         <v>500</v>
+      </c>
+      <c r="G17" s="4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -526,6 +568,9 @@
       </c>
       <c r="F18" s="4" t="n">
         <v>500</v>
+      </c>
+      <c r="G18" s="4" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -534,6 +579,7 @@
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="4"/>
@@ -541,6 +587,7 @@
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="4"/>
@@ -548,6 +595,7 @@
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="4"/>
@@ -555,6 +603,7 @@
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="4"/>
@@ -562,6 +611,7 @@
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="4"/>
@@ -569,6 +619,7 @@
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="4"/>
@@ -576,6 +627,7 @@
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="4"/>
@@ -583,6 +635,7 @@
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="4"/>
@@ -590,6 +643,7 @@
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="4"/>
@@ -597,11 +651,12 @@
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
     </row>
   </sheetData>
   <dataValidations count="1">
     <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C7:C28" type="list">
-      <formula1>Sheet1!$B$3:$G$3</formula1>
+      <formula1>Sheet1!$B$3:$H$3</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>

--- a/Master/MasterData/SkillTree.xlsx
+++ b/Master/MasterData/SkillTree.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="17">
   <si>
     <t xml:space="preserve">$ENUM</t>
   </si>
@@ -52,6 +52,12 @@
     <t xml:space="preserve">Cost</t>
   </si>
   <si>
+    <t xml:space="preserve">NodeX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NodeY</t>
+  </si>
+  <si>
     <t xml:space="preserve">ParentNode</t>
   </si>
   <si>
@@ -59,6 +65,9 @@
   </si>
   <si>
     <t xml:space="preserve">u8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">float</t>
   </si>
   <si>
     <t xml:space="preserve">$ITEM</t>
@@ -262,10 +271,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A3:G28"/>
+  <dimension ref="A3:I28"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G19" activeCellId="0" sqref="G19"/>
+      <selection pane="topLeft" activeCell="G16" activeCellId="0" sqref="G16:H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -309,30 +318,42 @@
       <c r="G5" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="H5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B7" s="4" t="n">
         <v>1</v>
@@ -352,6 +373,12 @@
       <c r="G7" s="4" t="n">
         <v>0</v>
       </c>
+      <c r="H7" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" s="4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="4" t="n">
@@ -370,6 +397,12 @@
         <v>500</v>
       </c>
       <c r="G8" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" s="4" t="n">
+        <v>150</v>
+      </c>
+      <c r="I8" s="4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -390,6 +423,12 @@
         <v>500</v>
       </c>
       <c r="G9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" s="4" t="n">
+        <v>300</v>
+      </c>
+      <c r="I9" s="4" t="n">
         <v>2</v>
       </c>
     </row>
@@ -412,6 +451,12 @@
       <c r="G10" s="4" t="n">
         <v>0</v>
       </c>
+      <c r="H10" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" s="4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="4" t="n">
@@ -430,6 +475,12 @@
         <v>500</v>
       </c>
       <c r="G11" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" s="4" t="n">
+        <v>150</v>
+      </c>
+      <c r="I11" s="4" t="n">
         <v>4</v>
       </c>
     </row>
@@ -450,6 +501,12 @@
         <v>500</v>
       </c>
       <c r="G12" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" s="4" t="n">
+        <v>300</v>
+      </c>
+      <c r="I12" s="4" t="n">
         <v>5</v>
       </c>
     </row>
@@ -472,6 +529,12 @@
       <c r="G13" s="4" t="n">
         <v>0</v>
       </c>
+      <c r="H13" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" s="4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="4" t="n">
@@ -490,6 +553,12 @@
         <v>500</v>
       </c>
       <c r="G14" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" s="4" t="n">
+        <v>150</v>
+      </c>
+      <c r="I14" s="4" t="n">
         <v>7</v>
       </c>
     </row>
@@ -510,6 +579,12 @@
         <v>500</v>
       </c>
       <c r="G15" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" s="4" t="n">
+        <v>300</v>
+      </c>
+      <c r="I15" s="4" t="n">
         <v>8</v>
       </c>
     </row>
@@ -532,6 +607,12 @@
       <c r="G16" s="4" t="n">
         <v>0</v>
       </c>
+      <c r="H16" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" s="4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="4" t="n">
@@ -550,6 +631,12 @@
         <v>500</v>
       </c>
       <c r="G17" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" s="4" t="n">
+        <v>150</v>
+      </c>
+      <c r="I17" s="4" t="n">
         <v>10</v>
       </c>
     </row>
@@ -570,6 +657,12 @@
         <v>500</v>
       </c>
       <c r="G18" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" s="4" t="n">
+        <v>300</v>
+      </c>
+      <c r="I18" s="4" t="n">
         <v>11</v>
       </c>
     </row>
@@ -580,6 +673,8 @@
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="4"/>
@@ -588,6 +683,8 @@
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="4"/>
@@ -596,6 +693,8 @@
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="4"/>
@@ -604,6 +703,8 @@
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="4"/>
@@ -612,6 +713,8 @@
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="4"/>
@@ -620,6 +723,8 @@
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="4"/>
@@ -628,6 +733,8 @@
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="4"/>
@@ -636,6 +743,8 @@
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="4"/>
@@ -644,6 +753,8 @@
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="4"/>
@@ -652,11 +763,13 @@
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
     </row>
   </sheetData>
   <dataValidations count="1">
     <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C7:C28" type="list">
-      <formula1>Sheet1!$B$3:$H$3</formula1>
+      <formula1>Sheet1!$B$3:$J$3</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
